--- a/xlsx/密西西比文化_intext.xlsx
+++ b/xlsx/密西西比文化_intext.xlsx
@@ -29,7 +29,7 @@
     <t>伍德兰期</t>
   </si>
   <si>
-    <t>政策_政策_美國_密西西比文化</t>
+    <t>政策_政策_美国_密西西比文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9C%8D%E5%9F%BA%E4%BA%9E%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>卡霍基亞遺址</t>
+    <t>卡霍基亚遗址</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BE%B7%E7%BB%B4%E5%B0%94%E9%81%97%E5%9D%80</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US-stub</t>
